--- a/bh3/507189922027698934_2021-03-28_18-35-56.xlsx
+++ b/bh3/507189922027698934_2021-03-28_18-35-56.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4769548302</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-21 23:43:27</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44368.98850694444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>4769548302</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-21 23:03:12</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44368.96055555555</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>4763601792</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-20 22:20:29</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44367.9308912037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -749,10 +759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-20 22:20:20</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44367.93078703704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -816,10 +824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-10 19:10:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44357.79928240741</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -883,10 +889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-29 20:30:10</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44345.85428240741</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -946,10 +950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-29 20:28:59</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44345.85346064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1009,10 +1011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-05-20 08:59:02</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44336.37432870371</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1076,10 +1076,8 @@
           <t>4559146375</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-05-13 19:30:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44329.8125462963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1147,10 +1145,8 @@
           <t>4559141762</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-05-13 19:29:34</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44329.81219907408</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1225,10 +1221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-05-13 19:29:23</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44329.81207175926</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1296,10 +1290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-05-13 17:44:18</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44329.73909722222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1359,10 +1351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-05-12 02:26:14</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44328.10155092592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1429,10 +1419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-05-12 02:12:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44328.09171296296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1498,10 +1486,8 @@
           <t>4542828138</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-05-10 12:59:56</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44326.54162037037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1574,10 +1560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-05-06 19:08:42</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44322.79770833333</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1641,10 +1625,8 @@
           <t>4495619228</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-05-01 15:51:50</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44317.66099537037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1727,10 +1709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-25 17:56:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44311.74775462963</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1809,10 +1789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-25 00:42:09</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44311.02927083334</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1881,10 +1859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-25 00:03:05</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44311.0021412037</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -1952,10 +1928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-24 21:15:12</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44310.88555555556</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2019,10 +1993,8 @@
           <t>4459912446</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-24 12:42:09</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44310.52927083334</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2088,10 +2060,8 @@
           <t>4459894939</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-24 12:39:38</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44310.52752314815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2159,10 +2129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-23 23:17:55</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44309.97077546296</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -2226,10 +2194,8 @@
           <t>4343998020</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-23 09:29:28</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44309.39546296297</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2298,10 +2264,8 @@
           <t>4343998020</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-23 09:23:00</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44309.39097222222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2365,10 +2329,8 @@
           <t>4454024634</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-23 09:22:11</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44309.39040509259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2437,10 +2399,8 @@
           <t>4343998020</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-23 09:21:56</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44309.39023148148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2514,10 +2474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:59:22</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44308.45789351852</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2585,10 +2543,8 @@
           <t>4433825639</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-18 21:07:53</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44304.88047453704</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2656,10 +2612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-18 21:06:15</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44304.87934027778</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2727,10 +2681,8 @@
           <t>4358924111</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-18 18:03:26</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44304.75238425926</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2899,10 +2851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-18 10:08:18</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44304.42243055555</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2974,10 +2924,8 @@
           <t>4430506809</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-18 08:57:17</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44304.37311342593</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3041,10 +2989,8 @@
           <t>4358924111</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:01:16</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44303.58421296296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3108,10 +3054,8 @@
           <t>4425628893</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-17 10:55:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44303.455</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3178,10 +3122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:19:40</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44302.76365740741</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
@@ -3253,10 +3195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-16 09:09:43</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44302.38174768518</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3320,10 +3260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-13 20:30:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44299.85460648148</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
@@ -3391,10 +3329,8 @@
           <t>4403850504</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-12 18:25:04</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44298.76740740741</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3466,10 +3402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-12 18:23:14</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44298.76613425926</v>
       </c>
       <c r="I42" t="n">
         <v>13</v>
@@ -3541,10 +3475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:37:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44297.65076388889</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3621,10 +3553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-11 01:48:55</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44297.07563657407</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3711,10 +3641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:47:10</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44296.6994212963</v>
       </c>
       <c r="I45" t="n">
         <v>7</v>
@@ -3778,10 +3706,8 @@
           <t>4381634976</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:05:05</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44296.6285300926</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3853,10 +3779,8 @@
           <t>4381634976</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:37:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44296.60902777778</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3943,10 +3867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-09 18:26:30</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44295.76840277778</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
@@ -4018,10 +3940,8 @@
           <t>4384888886</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-08 23:01:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44294.95931712963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4089,10 +4009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-08 18:55:30</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44294.78854166667</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4152,10 +4070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-08 11:45:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44294.48960648148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4227,10 +4143,8 @@
           <t>4381836293</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-08 11:00:42</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44294.45881944444</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4316,10 +4230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-08 10:58:29</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44294.4572800926</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4395,10 +4307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-07 23:15:46</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44293.96928240741</v>
       </c>
       <c r="I54" t="n">
         <v>25</v>
@@ -4474,10 +4384,8 @@
           <t>4379649438</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:57:16</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44293.87310185185</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4541,10 +4449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-07 20:28:16</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44293.85296296296</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4608,10 +4514,8 @@
           <t>4379039754</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:01:17</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44293.79255787037</v>
       </c>
       <c r="I57" t="n">
         <v>8</v>
@@ -4680,10 +4584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-07 14:45:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44293.6147337963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4755,10 +4657,8 @@
           <t>4376195419</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:16:13</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44293.01126157407</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4835,10 +4735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-06 21:00:01</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44292.87501157408</v>
       </c>
       <c r="I60" t="n">
         <v>12</v>
@@ -4910,10 +4808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-06 19:00:58</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44292.79233796296</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4983,10 +4879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-06 18:06:35</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44292.75457175926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5046,10 +4940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-06 14:08:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44292.58936342593</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5120,10 +5012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-06 10:33:06</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44292.43965277778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5191,10 +5081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-06 01:16:53</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44292.05339120371</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5258,10 +5146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-05 23:29:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44291.97851851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5327,10 +5213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-05 18:16:50</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44291.76168981481</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5402,10 +5286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-05 16:00:14</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44291.6668287037</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5481,10 +5363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-05 14:34:49</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44291.60751157408</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5559,10 +5439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-05 11:34:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44291.48199074074</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -5633,10 +5511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-05 09:11:20</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44291.38287037037</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5700,10 +5576,8 @@
           <t>4365427925</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-05 01:49:24</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44291.07597222222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5767,10 +5641,8 @@
           <t>4365427925</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-04 21:27:18</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44290.89395833333</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5845,10 +5717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-04 21:15:06</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44290.88548611111</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5923,10 +5793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-04 20:17:50</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44290.84571759259</v>
       </c>
       <c r="I75" t="n">
         <v>5</v>
@@ -6011,10 +5879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-04 17:34:28</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44290.73226851852</v>
       </c>
       <c r="I76" t="n">
         <v>24</v>
@@ -6082,10 +5948,8 @@
           <t>4362927800</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-04 13:01:11</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44290.54248842593</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6153,10 +6017,8 @@
           <t>4362292312</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-04 10:53:13</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44290.45362268519</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6220,10 +6082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-04 09:56:09</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44290.41399305555</v>
       </c>
       <c r="I79" t="n">
         <v>15</v>
@@ -6291,10 +6151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-04 09:15:12</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44290.38555555556</v>
       </c>
       <c r="I80" t="n">
         <v>35</v>
@@ -6354,10 +6212,8 @@
           <t>4343942401</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-04 07:05:58</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44290.29581018518</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6433,10 +6289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-04 05:38:05</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44290.23478009259</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6504,10 +6358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-04 00:31:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44290.02171296296</v>
       </c>
       <c r="I83" t="n">
         <v>55</v>
@@ -6578,10 +6430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-03 23:14:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44289.96858796296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6649,10 +6499,8 @@
           <t>4360324209</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-03 22:44:31</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44289.94758101852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6728,10 +6576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-03 20:57:44</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44289.87342592593</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -6813,10 +6659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-03 20:07:47</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44289.83873842593</v>
       </c>
       <c r="I87" t="n">
         <v>5</v>
@@ -6888,10 +6732,8 @@
           <t>4358924111</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-03 18:36:50</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44289.7755787037</v>
       </c>
       <c r="I88" t="n">
         <v>11</v>
@@ -6955,10 +6797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-03 18:04:55</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44289.75341435185</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -7022,10 +6862,8 @@
           <t>4358186087</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-03 15:54:50</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44289.66307870371</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7089,10 +6927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-03 12:57:36</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44289.54</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7156,10 +6992,8 @@
           <t>4357005960</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-03 11:30:19</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44289.47938657407</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7231,10 +7065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-02 22:22:37</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44288.93237268519</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -7306,10 +7138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-02 21:54:39</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44288.91295138889</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7374,10 +7204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-02 21:13:24</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44288.88430555556</v>
       </c>
       <c r="I95" t="n">
         <v>8</v>
@@ -7446,10 +7274,8 @@
           <t>4352877305</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-02 16:09:03</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44288.67295138889</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7521,10 +7347,8 @@
           <t>4352872828</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-02 16:08:53</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44288.67283564815</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7596,10 +7420,8 @@
           <t>4352876952</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-02 16:08:46</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44288.67275462963</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7671,10 +7493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-02 14:03:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44288.58583333333</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -7748,10 +7568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:55:57</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44288.58052083333</v>
       </c>
       <c r="I100" t="n">
         <v>2</v>
@@ -7819,10 +7637,8 @@
           <t>4352355243</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:36:36</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44288.56708333334</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7898,10 +7714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:04:39</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44288.54489583334</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7971,10 +7785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-02 11:32:15</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44288.48072916667</v>
       </c>
       <c r="I103" t="n">
         <v>4</v>
@@ -8052,10 +7864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-02 08:16:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44288.34511574074</v>
       </c>
       <c r="I104" t="n">
         <v>10</v>
@@ -8123,10 +7933,8 @@
           <t>4350543870</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-02 00:24:29</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44288.01700231482</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8218,10 +8026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-01 23:26:17</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44287.97658564815</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8290,10 +8096,8 @@
           <t>4349221748</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-01 20:25:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44287.85118055555</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8357,10 +8161,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:59:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44287.79108796296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8436,10 +8238,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:57:36</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44287.79</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8503,10 +8303,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-01 18:10:21</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44287.7571875</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8582,10 +8380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-01 17:58:12</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44287.74875</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8653,10 +8449,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-01 17:12:31</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44287.71702546296</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8722,10 +8516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-01 16:43:35</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44287.69693287037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8793,10 +8585,8 @@
           <t>4343942401</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-01 16:34:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44287.69043981482</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8871,10 +8661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-01 16:21:12</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44287.68138888889</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8953,10 +8741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-01 15:10:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44287.63240740741</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -9031,10 +8817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-01 14:33:24</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44287.60652777777</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -9121,10 +8905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-01 13:27:54</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44287.56104166667</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9206,10 +8988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-01 12:21:08</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44287.51467592592</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9281,10 +9061,8 @@
           <t>4346724453</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-01 11:32:13</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44287.48070601852</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9352,10 +9130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-01 11:31:11</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44287.47998842593</v>
       </c>
       <c r="I121" t="n">
         <v>31</v>
@@ -9425,10 +9201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-01 10:58:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44287.45731481481</v>
       </c>
       <c r="I122" t="n">
         <v>127</v>
@@ -9504,10 +9278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-01 10:16:25</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44287.42806712963</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9583,10 +9355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-01 09:34:51</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44287.39920138889</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9650,10 +9420,8 @@
           <t>4346259020</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-01 09:33:52</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44287.39851851852</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9717,10 +9485,8 @@
           <t>4346260148</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-01 09:31:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44287.39667824074</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9784,10 +9550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-01 03:35:02</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44287.1493287037</v>
       </c>
       <c r="I127" t="n">
         <v>20</v>
@@ -9851,10 +9615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-01 03:09:51</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44287.13184027778</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9918,10 +9680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-01 02:09:26</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44287.08988425926</v>
       </c>
       <c r="I129" t="n">
         <v>7</v>
@@ -10008,10 +9768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-01 01:38:54</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44287.06868055555</v>
       </c>
       <c r="I130" t="n">
         <v>6</v>
@@ -10089,10 +9847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-31 23:56:32</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44286.99759259259</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -10164,10 +9920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-31 23:16:48</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44286.97</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10242,10 +9996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:52:47</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44286.91165509259</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10313,10 +10065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:52:23</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44286.91137731481</v>
       </c>
       <c r="I134" t="n">
         <v>4</v>
@@ -10384,10 +10134,8 @@
           <t>4343942401</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:45:45</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44286.90677083333</v>
       </c>
       <c r="I135" t="n">
         <v>7</v>
@@ -10451,10 +10199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:34:24</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44286.89888888889</v>
       </c>
       <c r="I136" t="n">
         <v>7</v>
@@ -10522,10 +10268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-31 21:30:39</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44286.89628472222</v>
       </c>
       <c r="I137" t="n">
         <v>8</v>
@@ -10593,10 +10337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:59:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44286.87481481482</v>
       </c>
       <c r="I138" t="n">
         <v>5</v>
@@ -10668,10 +10410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:57:28</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44286.87324074074</v>
       </c>
       <c r="I139" t="n">
         <v>46</v>
@@ -10735,10 +10475,8 @@
           <t>4343998020</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:57:11</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44286.87304398148</v>
       </c>
       <c r="I140" t="n">
         <v>14</v>
@@ -10802,10 +10540,8 @@
           <t>4343942401</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:46:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44286.86541666667</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -10880,10 +10616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:41:06</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44286.861875</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10943,10 +10677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-31 20:15:38</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44286.84418981482</v>
       </c>
       <c r="I143" t="n">
         <v>31</v>
@@ -11018,10 +10750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:13:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44286.80136574074</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11100,10 +10830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:13:27</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44286.80100694444</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -11177,10 +10905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-31 19:05:32</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44286.79550925926</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11255,10 +10981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-31 18:59:35</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44286.79137731482</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11332,10 +11056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-31 18:16:36</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44286.76152777778</v>
       </c>
       <c r="I148" t="n">
         <v>15</v>
@@ -11410,10 +11132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-31 18:05:12</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44286.75361111111</v>
       </c>
       <c r="I149" t="n">
         <v>12</v>
@@ -11481,10 +11201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:59:50</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44286.74988425926</v>
       </c>
       <c r="I150" t="n">
         <v>6</v>
@@ -11556,10 +11274,8 @@
           <t>4343034820</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:56:52</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44286.74782407407</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11641,10 +11357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-31 17:06:09</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44286.71260416666</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11720,10 +11434,8 @@
           <t>4342582524</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-31 15:57:05</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44286.6646412037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11787,10 +11499,8 @@
           <t>4342121333</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:32:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44286.56409722222</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11858,10 +11568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:06:01</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44286.54584490741</v>
       </c>
       <c r="I155" t="n">
         <v>49</v>
@@ -11925,10 +11633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:05:34</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44286.54553240741</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11992,10 +11698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:05:10</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44286.54525462963</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12059,10 +11763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-31 13:04:32</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44286.54481481481</v>
       </c>
       <c r="I158" t="n">
         <v>15</v>
@@ -12126,10 +11828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-31 12:34:42</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44286.52409722222</v>
       </c>
       <c r="I159" t="n">
         <v>16</v>
@@ -12213,10 +11913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-31 12:25:32</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44286.51773148148</v>
       </c>
       <c r="I160" t="n">
         <v>12</v>
@@ -12302,10 +12000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-31 11:49:38</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44286.49280092592</v>
       </c>
       <c r="I161" t="n">
         <v>11</v>
@@ -12377,10 +12073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-31 10:45:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44286.44799768519</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -12457,10 +12151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-31 09:39:45</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44286.40260416667</v>
       </c>
       <c r="I163" t="n">
         <v>11</v>
@@ -12538,10 +12230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-31 08:23:18</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44286.34951388889</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12609,10 +12299,8 @@
           <t>4341056598</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-31 08:23:03</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44286.34934027777</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12686,10 +12374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-31 07:28:16</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44286.3112962963</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12763,10 +12449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-31 06:19:38</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44286.26363425926</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -12842,10 +12526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-31 00:43:18</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44286.03006944444</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12909,10 +12591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-30 22:42:25</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44285.94612268519</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12978,10 +12658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-30 22:41:55</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44285.94577546296</v>
       </c>
       <c r="I170" t="n">
         <v>66</v>
@@ -13045,10 +12723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-30 21:43:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44285.90538194445</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -13112,10 +12788,8 @@
           <t>4337426972</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-30 20:38:46</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44285.86025462963</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13187,10 +12861,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-30 20:37:56</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44285.85967592592</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13262,10 +12934,8 @@
           <t>4338176700</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-30 16:58:51</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44285.70753472222</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13341,10 +13011,8 @@
           <t>4337426972</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-30 15:24:00</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44285.64166666667</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13413,10 +13081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:57:39</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44285.58170138889</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13488,10 +13154,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:24:57</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44285.55899305556</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13567,10 +13231,8 @@
           <t>4337426972</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-30 13:10:10</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44285.54872685186</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13634,10 +13296,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-30 12:23:41</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44285.51644675926</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13701,10 +13361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:35:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44285.48327546296</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13776,10 +13434,8 @@
           <t>4336972359</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:26:05</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44285.47644675926</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13851,10 +13507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:20:29</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44285.47255787037</v>
       </c>
       <c r="I182" t="n">
         <v>9</v>
@@ -13918,10 +13572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-30 11:17:30</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44285.47048611111</v>
       </c>
       <c r="I183" t="n">
         <v>101</v>
@@ -13985,10 +13637,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-30 09:34:01</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44285.39862268518</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14062,10 +13712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-30 09:18:33</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44285.38788194444</v>
       </c>
       <c r="I185" t="n">
         <v>46</v>
@@ -14125,10 +13773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-30 08:25:26</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44285.35099537037</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -14196,10 +13842,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-30 07:20:13</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44285.30570601852</v>
       </c>
       <c r="I187" t="n">
         <v>7</v>
@@ -14275,10 +13919,8 @@
           <t>4336268137</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-30 06:06:59</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44285.25484953704</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14368,10 +14010,8 @@
           <t>4336094288</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-30 02:04:40</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44285.08657407408</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14435,10 +14075,8 @@
           <t>4336049290</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-30 01:37:15</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44285.06753472222</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14506,10 +14144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-29 22:42:04</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44284.94587962963</v>
       </c>
       <c r="I191" t="n">
         <v>145</v>
@@ -14578,10 +14214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:17:08</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44284.88689814815</v>
       </c>
       <c r="I192" t="n">
         <v>12</v>
@@ -14641,10 +14275,8 @@
           <t>4334843018</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:16:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44284.88664351852</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14712,10 +14344,8 @@
           <t>4334763991</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:00:56</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44284.87564814815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14779,10 +14409,8 @@
           <t>4334758915</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-29 21:00:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44284.87555555555</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14846,10 +14474,8 @@
           <t>4334502825</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-29 20:07:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44284.83825231482</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14913,10 +14539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-29 16:05:50</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44284.67071759259</v>
       </c>
       <c r="I197" t="n">
         <v>68</v>
@@ -14984,10 +14608,8 @@
           <t>4333353555</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:30:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44284.64638888889</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15059,10 +14681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-29 15:28:20</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44284.64467592593</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -15126,10 +14746,8 @@
           <t>4333086689</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:54:28</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44284.57949074074</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15205,10 +14823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-29 13:28:17</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44284.56130787037</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15280,10 +14896,8 @@
           <t>4332503722</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-29 11:21:15</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44284.47309027778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15347,10 +14961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:27:03</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44284.43545138889</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15410,10 +15022,8 @@
           <t>4329748372</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:59:21</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44284.33288194444</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15489,10 +15099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-29 07:45:45</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44284.3234375</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15565,10 +15173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-29 02:42:25</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44284.11278935185</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15640,10 +15246,8 @@
           <t>4331442350</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:31:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44284.02210648148</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15707,10 +15311,8 @@
           <t>4331417610</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-29 00:26:24</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44284.01833333333</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15778,10 +15380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:55:01</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44283.99653935185</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15853,10 +15453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:15:05</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44283.96880787037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15928,10 +15526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-28 23:08:06</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44283.96395833333</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15999,10 +15595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:59:41</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44283.95811342593</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16078,10 +15672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:34:07</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44283.9403587963</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16149,10 +15741,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:32:37</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44283.93931712963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16228,10 +15818,8 @@
           <t>4330405432</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:31:25</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44283.93848379629</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16307,10 +15895,8 @@
           <t>4330798350</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:27:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44283.93606481481</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16378,10 +15964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:10:38</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44283.92405092593</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16449,10 +16033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:09:44</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44283.92342592592</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16516,10 +16098,8 @@
           <t>4329913813</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:09:20</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44283.92314814815</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16583,10 +16163,8 @@
           <t>4330657912</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:02:08</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44283.91814814815</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16662,10 +16240,8 @@
           <t>4330657912</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:01:57</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44283.91802083333</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16741,10 +16317,8 @@
           <t>4330656545</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-28 22:01:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44283.9174537037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16808,10 +16382,8 @@
           <t>4330616301</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:52:44</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44283.91162037037</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16876,10 +16448,8 @@
           <t>4330611417</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:52:11</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44283.91123842593</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16944,10 +16514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:37:52</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44283.9012962963</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17016,10 +16584,8 @@
           <t>4330431207</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:16:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44283.88638888889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17095,10 +16661,8 @@
           <t>4330405432</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:10:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44283.88203703704</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -17163,10 +16727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:03:05</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44283.8771412037</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17231,10 +16793,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-28 21:00:31</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44283.87535879629</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17310,10 +16870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:56:23</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44283.87248842593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17381,10 +16939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:54:20</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44283.87106481481</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17460,10 +17016,8 @@
           <t>4330309305</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:52:19</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44283.86966435185</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17539,10 +17093,8 @@
           <t>4330308683</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:51:55</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44283.86938657407</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17618,10 +17170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:51:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44283.86915509259</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17697,10 +17247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:36:57</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44283.85899305555</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17776,10 +17324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:28:43</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44283.85327546296</v>
       </c>
       <c r="I236" t="n">
         <v>22</v>
@@ -17848,10 +17394,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:28:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44283.85317129629</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17927,10 +17471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:25:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44283.85109953704</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17998,10 +17540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:22:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44283.84925925926</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18080,10 +17620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:17:59</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44283.84582175926</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18159,10 +17697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:17:50</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44283.84571759259</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18234,10 +17770,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:13:34</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44283.84275462963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18313,10 +17847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:11:34</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44283.84136574074</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18376,10 +17908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:09:28</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44283.8399074074</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18439,10 +17969,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-28 20:03:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44283.83574074074</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18518,10 +18046,8 @@
           <t>4330032315</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:51:54</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44283.82770833333</v>
       </c>
       <c r="I246" t="n">
         <v>10</v>
@@ -18597,10 +18123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:47:56</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44283.8249537037</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18660,10 +18184,8 @@
           <t>4330009905</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:47:16</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44283.82449074074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18727,10 +18249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:45:36</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44283.82333333333</v>
       </c>
       <c r="I249" t="n">
         <v>7</v>
@@ -18802,10 +18322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:42:37</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44283.82126157408</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18882,10 +18400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:40:12</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44283.81958333333</v>
       </c>
       <c r="I251" t="n">
         <v>71</v>
@@ -18949,10 +18465,8 @@
           <t>4329980986</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:40:07</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44283.81952546296</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19016,10 +18530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:31:42</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44283.81368055556</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19095,10 +18607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:31:20</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44283.81342592592</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -19166,10 +18676,8 @@
           <t>4329927858</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:29:01</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44283.81181712963</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19245,10 +18753,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:26:42</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44283.81020833334</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19312,10 +18818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:21:48</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44283.80680555556</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19383,10 +18887,8 @@
           <t>4329889809</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:21:07</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44283.80633101852</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19458,10 +18960,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:20:22</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44283.80581018519</v>
       </c>
       <c r="I259" t="n">
         <v>6</v>
@@ -19529,10 +19029,8 @@
           <t>4329742726</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:18:57</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44283.80482638889</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19604,10 +19102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:18:52</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44283.80476851852</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19679,10 +19175,8 @@
           <t>4329742726</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:16:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44283.80295138889</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19746,10 +19240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:09:56</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44283.79856481482</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19821,10 +19313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:09:20</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44283.79814814815</v>
       </c>
       <c r="I264" t="n">
         <v>4</v>
@@ -19896,10 +19386,8 @@
           <t>4329826953</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:06:36</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44283.79625</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19975,10 +19463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:05:35</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44283.79554398148</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -20042,10 +19528,8 @@
           <t>4329717458</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:04:37</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44283.79487268518</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20113,10 +19597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:03:45</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44283.79427083334</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20184,10 +19666,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:03:06</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44283.79381944444</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20247,10 +19727,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:02:41</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44283.79353009259</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20310,10 +19788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:01:21</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44283.79260416667</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20389,10 +19865,8 @@
           <t>4329742726</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:01:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44283.79256944444</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20464,10 +19938,8 @@
           <t>4329732868</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:01:12</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44283.7925</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20543,10 +20015,8 @@
           <t>4329794804</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:01:11</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44283.79248842593</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20622,10 +20092,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:44</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44283.79217592593</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20689,10 +20157,8 @@
           <t>4329732868</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:43</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44283.79216435185</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20768,10 +20234,8 @@
           <t>4329800213</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:41</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44283.7921412037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20843,10 +20307,8 @@
           <t>4329797111</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44283.79208333333</v>
       </c>
       <c r="I278" t="n">
         <v>31</v>
@@ -20919,10 +20381,8 @@
           <t>4329789733</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-28 19:00:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44283.79194444444</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20998,10 +20458,8 @@
           <t>4329760599</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:53</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44283.79158564815</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21077,10 +20535,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44283.79123842593</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21156,10 +20612,8 @@
           <t>4329770329</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:59:06</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44283.79104166666</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21235,10 +20689,8 @@
           <t>4329742726</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:58:19</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44283.79049768519</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21314,10 +20766,8 @@
           <t>4329786010</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:57:56</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44283.79023148148</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21377,10 +20827,8 @@
           <t>4329708813</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:57:56</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44283.79023148148</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21452,10 +20900,8 @@
           <t>4329779392</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:57:42</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44283.79006944445</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21515,10 +20961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:56:46</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44283.78942129629</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21582,10 +21026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:56:38</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44283.7893287037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21661,10 +21103,8 @@
           <t>4329770329</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:56:20</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44283.78912037037</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21740,10 +21180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:56:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44283.78909722222</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21815,10 +21253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:55:13</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44283.78834490741</v>
       </c>
       <c r="I291" t="n">
         <v>33</v>
@@ -21894,10 +21330,8 @@
           <t>4329767909</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:54:45</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44283.78802083333</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -21969,10 +21403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:54:27</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44283.7878125</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22040,10 +21472,8 @@
           <t>4329770329</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:54:15</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44283.78767361111</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22119,10 +21549,8 @@
           <t>4329766438</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:53:50</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44283.78738425926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22198,10 +21626,8 @@
           <t>4329760599</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:51:59</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44283.78609953704</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22273,10 +21699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:51:35</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44283.78582175926</v>
       </c>
       <c r="I297" t="n">
         <v>111</v>
@@ -22344,10 +21768,8 @@
           <t>4329748372</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:50:32</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44283.7850925926</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22407,10 +21829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:49:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44283.78471064815</v>
       </c>
       <c r="I299" t="n">
         <v>50</v>
@@ -22486,10 +21906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:49:58</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44283.78469907407</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22565,10 +21983,8 @@
           <t>4329742726</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:49:11</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44283.7841550926</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22640,10 +22056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:47:47</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44283.78318287037</v>
       </c>
       <c r="I302" t="n">
         <v>5</v>
@@ -22711,10 +22125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:47:06</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44283.78270833333</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22786,10 +22198,8 @@
           <t>4329732868</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:46:47</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44283.78248842592</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22865,10 +22275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:46:22</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44283.78219907408</v>
       </c>
       <c r="I305" t="n">
         <v>43</v>
@@ -22932,10 +22340,8 @@
           <t>4329730117</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:45:26</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44283.78155092592</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23011,10 +22417,8 @@
           <t>4329730630</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:45:13</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44283.78140046296</v>
       </c>
       <c r="I307" t="n">
         <v>25</v>
@@ -23090,10 +22494,8 @@
           <t>4329730117</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:44:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44283.78114583333</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -23157,10 +22559,8 @@
           <t>4329721783</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:44:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44283.78070601852</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -23236,10 +22636,8 @@
           <t>4329720389</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:17</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44283.78005787037</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23309,10 +22707,8 @@
           <t>4329713810</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:10</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44283.77997685185</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23388,10 +22784,8 @@
           <t>4329720197</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:10</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44283.77997685185</v>
       </c>
       <c r="I312" t="n">
         <v>7</v>
@@ -23455,10 +22849,8 @@
           <t>4329717458</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:43:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44283.77989583334</v>
       </c>
       <c r="I313" t="n">
         <v>10</v>
@@ -23522,10 +22914,8 @@
           <t>4329708813</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:42:35</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44283.77957175926</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23593,10 +22983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:42:33</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44283.77954861111</v>
       </c>
       <c r="I315" t="n">
         <v>4</v>
@@ -23656,10 +23044,8 @@
           <t>4329708813</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:42:14</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44283.77932870371</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23731,10 +23117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:41:50</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44283.77905092593</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23812,10 +23196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:41:48</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44283.77902777777</v>
       </c>
       <c r="I318" t="n">
         <v>40</v>
@@ -23891,10 +23273,8 @@
           <t>4329704930</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:41:22</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44283.77872685185</v>
       </c>
       <c r="I319" t="n">
         <v>11</v>
@@ -23966,10 +23346,8 @@
           <t>4329704457</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:41:02</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44283.77849537037</v>
       </c>
       <c r="I320" t="n">
         <v>18</v>
@@ -24041,10 +23419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:40:55</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44283.77841435185</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24117,10 +23493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:40:05</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44283.77783564815</v>
       </c>
       <c r="I322" t="n">
         <v>75</v>
@@ -24189,10 +23563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:52</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44283.77768518519</v>
       </c>
       <c r="I323" t="n">
         <v>924</v>
@@ -24256,10 +23628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:32</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44283.7774537037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24327,10 +23697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:15</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44283.77725694444</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24402,10 +23770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:03</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44283.77711805556</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24473,10 +23839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:39:03</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44283.77711805556</v>
       </c>
       <c r="I327" t="n">
         <v>16</v>
@@ -24552,10 +23916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:38:09</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44283.77649305556</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24615,10 +23977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:38:09</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44283.77649305556</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24690,10 +24050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:38:08</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44283.77648148148</v>
       </c>
       <c r="I330" t="n">
         <v>14</v>
@@ -24761,10 +24119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:37:48</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44283.77625</v>
       </c>
       <c r="I331" t="n">
         <v>188</v>
@@ -24832,10 +24188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:37:31</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44283.77605324074</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24907,10 +24261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:37:29</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44283.77603009259</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24982,10 +24334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:37:05</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44283.77575231482</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25065,10 +24415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:53</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44283.77561342593</v>
       </c>
       <c r="I335" t="n">
         <v>271</v>
@@ -25144,10 +24492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:31</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44283.77535879629</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25211,10 +24557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:27</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44283.7753125</v>
       </c>
       <c r="I337" t="n">
         <v>7</v>
@@ -25290,10 +24634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:26</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44283.77530092592</v>
       </c>
       <c r="I338" t="n">
         <v>4</v>
@@ -25361,10 +24703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44283.7752662037</v>
       </c>
       <c r="I339" t="n">
         <v>6</v>
@@ -25432,10 +24772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-28 18:36:12</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44283.77513888889</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
